--- a/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
+++ b/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Dropbox\InputData\bldgs\EoCPwEU\MEX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10155" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="Calculations" sheetId="9" r:id="rId7"/>
     <sheet name="EoCPwEU" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1176,16 +1181,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="\$###0;\$###0"/>
-    <numFmt numFmtId="169" formatCode="\$#,##0;\$#,##0"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="\$###0;\$###0"/>
+    <numFmt numFmtId="170" formatCode="\$#,##0;\$#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1214,7 +1219,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -1309,14 +1314,14 @@
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1330,17 +1335,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1363,10 +1368,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,7 +1392,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1399,11 +1404,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1411,7 +1416,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1419,22 +1424,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="6"/>
     <cellStyle name="Currency 3" xfId="8"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="10" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="14"/>
     <cellStyle name="Normal 3" xfId="5"/>
     <cellStyle name="Normal 4" xfId="4"/>
     <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="7"/>
     <cellStyle name="Percent 3" xfId="9"/>
     <cellStyle name="Percent 4" xfId="12"/>
     <cellStyle name="Percent 5" xfId="13"/>
     <cellStyle name="Percent 5 2" xfId="15"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1738,7 +1743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1748,9 +1753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="64" customWidth="1"/>
@@ -2422,7 +2427,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3089,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>3.7930168299422258E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3147,7 +3152,7 @@
         <v>7.5860336598844516E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3176,7 +3181,7 @@
         <v>0.55262496860085408</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3205,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -3234,7 +3239,7 @@
         <v>7.4944348256245366E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -3263,7 +3268,7 @@
         <v>0.11254019292604502</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -3408,7 +3413,7 @@
         <v>0.52764720964020173</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>3</v>
       </c>
@@ -3437,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>3</v>
       </c>
@@ -3466,7 +3471,7 @@
         <v>8.1475879637000481E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
@@ -3611,7 +3616,7 @@
         <v>0.41035985154106824</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>3</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>3</v>
       </c>
@@ -3669,7 +3674,7 @@
         <v>9.4368214560023256E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>3</v>
       </c>
@@ -3785,7 +3790,7 @@
         <v>0.54336029487048221</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>3</v>
       </c>
@@ -5334,7 +5339,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -6057,7 +6062,7 @@
       </c>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6091,7 +6096,7 @@
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -6125,7 +6130,7 @@
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6159,7 +6164,7 @@
       </c>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -6193,7 +6198,7 @@
       </c>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -6227,7 +6232,7 @@
       </c>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -6261,7 +6266,7 @@
       </c>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -6295,7 +6300,7 @@
       </c>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -6329,7 +6334,7 @@
       </c>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -6363,7 +6368,7 @@
       </c>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6397,7 +6402,7 @@
       </c>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -6431,7 +6436,7 @@
       </c>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -6465,7 +6470,7 @@
       </c>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -6499,7 +6504,7 @@
       </c>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -6533,7 +6538,7 @@
       </c>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -6567,7 +6572,7 @@
       </c>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -6601,7 +6606,7 @@
       </c>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -6635,7 +6640,7 @@
       </c>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -6669,7 +6674,7 @@
       </c>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -6703,7 +6708,7 @@
       </c>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -6737,7 +6742,7 @@
       </c>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -6771,7 +6776,7 @@
       </c>
       <c r="P42" s="7"/>
     </row>
-    <row r="43" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -6805,7 +6810,7 @@
       </c>
       <c r="P43" s="7"/>
     </row>
-    <row r="44" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -10557,7 +10562,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -11317,7 +11322,7 @@
         <v>2.8324154209284028E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>88</v>
       </c>
@@ -11349,7 +11354,7 @@
         <v>4.7993705743509051E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>88</v>
       </c>
@@ -11381,7 +11386,7 @@
         <v>0.13532651455546812</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>88</v>
       </c>
@@ -11413,7 +11418,7 @@
         <v>0.14162077104642015</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>88</v>
       </c>
@@ -11445,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>88</v>
       </c>
@@ -11477,7 +11482,7 @@
         <v>4.0935672514619881E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>88</v>
       </c>
@@ -11509,7 +11514,7 @@
         <v>0.12573099415204678</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>88</v>
       </c>
@@ -11541,7 +11546,7 @@
         <v>0.44152046783625731</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>88</v>
       </c>
@@ -11573,7 +11578,7 @@
         <v>0.54970760233918126</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>88</v>
       </c>
@@ -11605,7 +11610,7 @@
         <v>1.3757309941520468</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>88</v>
       </c>
@@ -11637,7 +11642,7 @@
         <v>1.5058479532163742</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>88</v>
       </c>
@@ -11669,7 +11674,7 @@
         <v>1.7251461988304093</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>88</v>
       </c>
@@ -11701,7 +11706,7 @@
         <v>2.0146198830409356</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -11733,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>88</v>
       </c>
@@ -11765,7 +11770,7 @@
         <v>2.2099447513812154E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>88</v>
       </c>
@@ -11797,7 +11802,7 @@
         <v>3.6832412523020261E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>88</v>
       </c>
@@ -11829,7 +11834,7 @@
         <v>0.14917127071823205</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>88</v>
       </c>
@@ -11861,7 +11866,7 @@
         <v>0.2283609576427256</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -11893,7 +11898,7 @@
         <v>0.39779005524861877</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>88</v>
       </c>
@@ -11925,7 +11930,7 @@
         <v>0.64272559852670352</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
@@ -11957,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
@@ -11989,7 +11994,7 @@
         <v>2.1164021164021165E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>88</v>
       </c>
@@ -12021,7 +12026,7 @@
         <v>4.2328042328042331E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>88</v>
       </c>
@@ -19735,7 +19740,7 @@
         <v>1.7020162346163919E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
         <v>88</v>
       </c>
@@ -19767,7 +19772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
         <v>88</v>
       </c>
@@ -19799,7 +19804,7 @@
         <v>7.9896907216494839E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
         <v>88</v>
       </c>
@@ -19831,7 +19836,7 @@
         <v>0.37181226261530115</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>88</v>
       </c>
@@ -19863,7 +19868,7 @@
         <v>0.4152197504069452</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
         <v>88</v>
       </c>
@@ -19906,7 +19911,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -21070,7 +21075,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -21121,7 +21126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>38</v>
       </c>
@@ -21171,7 +21176,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>38</v>
       </c>
@@ -21221,7 +21226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -21271,7 +21276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>38</v>
       </c>
@@ -21328,7 +21333,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>38</v>
       </c>
@@ -21385,7 +21390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -21442,7 +21447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>38</v>
       </c>
@@ -21492,7 +21497,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>38</v>
       </c>
@@ -21542,7 +21547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -21593,7 +21598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>38</v>
       </c>
@@ -21650,7 +21655,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>38</v>
       </c>
@@ -21707,7 +21712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>38</v>
       </c>
@@ -21758,7 +21763,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>38</v>
       </c>
@@ -21808,7 +21813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>38</v>
       </c>
@@ -21858,7 +21863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>38</v>
       </c>
@@ -21915,7 +21920,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>38</v>
       </c>
@@ -21972,7 +21977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>38</v>
       </c>
@@ -22029,7 +22034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>38</v>
       </c>
@@ -22086,7 +22091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
         <v>38</v>
       </c>
@@ -22143,7 +22148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
         <v>38</v>
       </c>
@@ -22200,7 +22205,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
         <v>38</v>
       </c>
@@ -22250,7 +22255,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
         <v>38</v>
       </c>
@@ -23451,18 +23456,18 @@
         <v>89</v>
       </c>
       <c r="K66" s="41">
-        <f t="shared" ref="K66:K97" si="9">IF(J66="",I66/H66*1000,J66)</f>
+        <f t="shared" ref="K66:K79" si="9">IF(J66="",I66/H66*1000,J66)</f>
         <v>89</v>
       </c>
       <c r="L66" s="38">
         <v>44000</v>
       </c>
       <c r="M66" s="45">
-        <f t="shared" ref="M66:M97" si="10">1/G66/L66*1000</f>
+        <f t="shared" ref="M66:M79" si="10">1/G66/L66*1000</f>
         <v>2.4975024975024975E-4</v>
       </c>
       <c r="N66" s="42">
-        <f t="shared" ref="N66:N97" si="11">IFERROR(P66/O66,"")</f>
+        <f t="shared" ref="N66:N79" si="11">IFERROR(P66/O66,"")</f>
         <v>281.29001200400131</v>
       </c>
       <c r="O66" s="43">
@@ -24218,7 +24223,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -24960,7 +24965,7 @@
         <v>4.4472681067344345E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>178</v>
       </c>
@@ -24992,7 +24997,7 @@
         <v>0.19250317662007624</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>178</v>
       </c>
@@ -25024,7 +25029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>178</v>
       </c>
@@ -25056,7 +25061,7 @@
         <v>1.5337423312883436E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>178</v>
       </c>
@@ -25088,7 +25093,7 @@
         <v>3.4509202453987732E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>178</v>
       </c>
@@ -25120,7 +25125,7 @@
         <v>7.9754601226993863E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>178</v>
       </c>
@@ -25152,7 +25157,7 @@
         <v>0.17868098159509202</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>178</v>
       </c>
@@ -25184,7 +25189,7 @@
         <v>0.2630368098159509</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>178</v>
       </c>
@@ -25216,7 +25221,7 @@
         <v>0.60889570552147243</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>178</v>
       </c>
@@ -25248,7 +25253,7 @@
         <v>1.2883435582822085</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>178</v>
       </c>
@@ -25280,7 +25285,7 @@
         <v>1.4808282208588956</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -25312,7 +25317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>178</v>
       </c>
@@ -25344,7 +25349,7 @@
         <v>2.0469596628537028E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>178</v>
       </c>
@@ -25376,7 +25381,7 @@
         <v>4.0337146297411197E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>178</v>
       </c>
@@ -25408,7 +25413,7 @@
         <v>7.8868151715833834E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>178</v>
       </c>
@@ -25440,7 +25445,7 @@
         <v>0.13726670680313063</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>178</v>
       </c>
@@ -25472,7 +25477,7 @@
         <v>0.2366044551475015</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>178</v>
       </c>
@@ -25504,7 +25509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>178</v>
       </c>
@@ -25536,7 +25541,7 @@
         <v>4.5126353790613718E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>178</v>
       </c>
@@ -25568,7 +25573,7 @@
         <v>1.6245487364620937E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>178</v>
       </c>
@@ -25600,7 +25605,7 @@
         <v>4.4223826714801441E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>178</v>
       </c>
@@ -25632,7 +25637,7 @@
         <v>7.0397111913357402E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>178</v>
       </c>
@@ -25664,7 +25669,7 @@
         <v>0.11281588447653429</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>178</v>
       </c>
@@ -32982,7 +32987,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -33098,9 +33103,9 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>

--- a/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
+++ b/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Dropbox\InputData\bldgs\EoCPwEU\MEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoCPwEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10155" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Calculations" sheetId="9" r:id="rId7"/>
     <sheet name="EoCPwEU" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="316">
   <si>
     <t>Elasticity</t>
   </si>
@@ -1177,20 +1177,23 @@
   <si>
     <t>We aim to include the largest energy consumeing components to try and capture the range of elasticities. In the "Calculations" page, we remove the top 20% of elasticities for two reasons.</t>
   </si>
+  <si>
+    <t>Elasticity by Fuel (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="\$###0;\$###0"/>
-    <numFmt numFmtId="170" formatCode="\$#,##0;\$#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="\$###0;\$###0"/>
+    <numFmt numFmtId="169" formatCode="\$#,##0;\$#,##0"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1314,14 +1317,14 @@
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1330,22 +1333,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1368,10 +1371,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,7 +1395,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1404,11 +1407,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1416,30 +1419,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="6"/>
     <cellStyle name="Currency 3" xfId="8"/>
-    <cellStyle name="Hipervínculo" xfId="10" builtinId="8"/>
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="14"/>
     <cellStyle name="Normal 3" xfId="5"/>
     <cellStyle name="Normal 4" xfId="4"/>
     <cellStyle name="Normal 5" xfId="11"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="7"/>
     <cellStyle name="Percent 3" xfId="9"/>
     <cellStyle name="Percent 4" xfId="12"/>
     <cellStyle name="Percent 5" xfId="13"/>
     <cellStyle name="Percent 5 2" xfId="15"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1753,9 +1759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="64" customWidth="1"/>
@@ -2427,7 +2433,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3094,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>3.7930168299422258E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>7.5860336598844516E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>0.55262496860085408</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>7.4944348256245366E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>0.11254019292604502</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>0.52764720964020173</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>3</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>3</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>8.1475879637000481E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>0.41035985154106824</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>3</v>
       </c>
@@ -3645,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3680,7 @@
         <v>9.4368214560023256E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>3</v>
       </c>
@@ -5339,7 +5345,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -6062,7 +6068,7 @@
       </c>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6096,7 +6102,7 @@
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -6130,7 +6136,7 @@
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6164,7 +6170,7 @@
       </c>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -6198,7 +6204,7 @@
       </c>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -6232,7 +6238,7 @@
       </c>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -6266,7 +6272,7 @@
       </c>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -6300,7 +6306,7 @@
       </c>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -6334,7 +6340,7 @@
       </c>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -6368,7 +6374,7 @@
       </c>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6402,7 +6408,7 @@
       </c>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -6436,7 +6442,7 @@
       </c>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -6470,7 +6476,7 @@
       </c>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -6504,7 +6510,7 @@
       </c>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -6538,7 +6544,7 @@
       </c>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -6572,7 +6578,7 @@
       </c>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -6606,7 +6612,7 @@
       </c>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -6640,7 +6646,7 @@
       </c>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -6674,7 +6680,7 @@
       </c>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -6708,7 +6714,7 @@
       </c>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -6742,7 +6748,7 @@
       </c>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -6776,7 +6782,7 @@
       </c>
       <c r="P42" s="7"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -10562,7 +10568,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -11322,7 +11328,7 @@
         <v>2.8324154209284028E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>88</v>
       </c>
@@ -11354,7 +11360,7 @@
         <v>4.7993705743509051E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>88</v>
       </c>
@@ -11386,7 +11392,7 @@
         <v>0.13532651455546812</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>88</v>
       </c>
@@ -11418,7 +11424,7 @@
         <v>0.14162077104642015</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>88</v>
       </c>
@@ -11450,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>88</v>
       </c>
@@ -11482,7 +11488,7 @@
         <v>4.0935672514619881E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>88</v>
       </c>
@@ -11514,7 +11520,7 @@
         <v>0.12573099415204678</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>88</v>
       </c>
@@ -11546,7 +11552,7 @@
         <v>0.44152046783625731</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>88</v>
       </c>
@@ -11578,7 +11584,7 @@
         <v>0.54970760233918126</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>88</v>
       </c>
@@ -11610,7 +11616,7 @@
         <v>1.3757309941520468</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>88</v>
       </c>
@@ -11642,7 +11648,7 @@
         <v>1.5058479532163742</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>88</v>
       </c>
@@ -11674,7 +11680,7 @@
         <v>1.7251461988304093</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>88</v>
       </c>
@@ -11706,7 +11712,7 @@
         <v>2.0146198830409356</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -11738,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>88</v>
       </c>
@@ -11770,7 +11776,7 @@
         <v>2.2099447513812154E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>88</v>
       </c>
@@ -11802,7 +11808,7 @@
         <v>3.6832412523020261E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>88</v>
       </c>
@@ -11834,7 +11840,7 @@
         <v>0.14917127071823205</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>88</v>
       </c>
@@ -11866,7 +11872,7 @@
         <v>0.2283609576427256</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -11898,7 +11904,7 @@
         <v>0.39779005524861877</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>88</v>
       </c>
@@ -11930,7 +11936,7 @@
         <v>0.64272559852670352</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
@@ -11962,7 +11968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
@@ -11994,7 +12000,7 @@
         <v>2.1164021164021165E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>88</v>
       </c>
@@ -19740,7 +19746,7 @@
         <v>1.7020162346163919E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
         <v>88</v>
       </c>
@@ -19772,7 +19778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
         <v>88</v>
       </c>
@@ -19804,7 +19810,7 @@
         <v>7.9896907216494839E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
         <v>88</v>
       </c>
@@ -19836,7 +19842,7 @@
         <v>0.37181226261530115</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>88</v>
       </c>
@@ -19868,7 +19874,7 @@
         <v>0.4152197504069452</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
         <v>88</v>
       </c>
@@ -19911,7 +19917,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -21075,7 +21081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -21126,7 +21132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="40" t="s">
         <v>38</v>
       </c>
@@ -21176,7 +21182,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>38</v>
       </c>
@@ -21226,7 +21232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -21276,7 +21282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>38</v>
       </c>
@@ -21333,7 +21339,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="40" t="s">
         <v>38</v>
       </c>
@@ -21390,7 +21396,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -21447,7 +21453,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="40" t="s">
         <v>38</v>
       </c>
@@ -21497,7 +21503,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="s">
         <v>38</v>
       </c>
@@ -21547,7 +21553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -21598,7 +21604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>38</v>
       </c>
@@ -21655,7 +21661,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="40" t="s">
         <v>38</v>
       </c>
@@ -21712,7 +21718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="40" t="s">
         <v>38</v>
       </c>
@@ -21763,7 +21769,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
         <v>38</v>
       </c>
@@ -21813,7 +21819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
         <v>38</v>
       </c>
@@ -21863,7 +21869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="40" t="s">
         <v>38</v>
       </c>
@@ -21920,7 +21926,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
         <v>38</v>
       </c>
@@ -21977,7 +21983,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>38</v>
       </c>
@@ -22034,7 +22040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="40" t="s">
         <v>38</v>
       </c>
@@ -22091,7 +22097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" s="40" t="s">
         <v>38</v>
       </c>
@@ -22148,7 +22154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="40" t="s">
         <v>38</v>
       </c>
@@ -22205,7 +22211,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43" s="40" t="s">
         <v>38</v>
       </c>
@@ -24223,7 +24229,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -24965,7 +24971,7 @@
         <v>4.4472681067344345E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>178</v>
       </c>
@@ -24997,7 +25003,7 @@
         <v>0.19250317662007624</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>178</v>
       </c>
@@ -25029,7 +25035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>178</v>
       </c>
@@ -25061,7 +25067,7 @@
         <v>1.5337423312883436E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>178</v>
       </c>
@@ -25093,7 +25099,7 @@
         <v>3.4509202453987732E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>178</v>
       </c>
@@ -25125,7 +25131,7 @@
         <v>7.9754601226993863E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>178</v>
       </c>
@@ -25157,7 +25163,7 @@
         <v>0.17868098159509202</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>178</v>
       </c>
@@ -25189,7 +25195,7 @@
         <v>0.2630368098159509</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>178</v>
       </c>
@@ -25221,7 +25227,7 @@
         <v>0.60889570552147243</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>178</v>
       </c>
@@ -25253,7 +25259,7 @@
         <v>1.2883435582822085</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>178</v>
       </c>
@@ -25285,7 +25291,7 @@
         <v>1.4808282208588956</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -25317,7 +25323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>178</v>
       </c>
@@ -25349,7 +25355,7 @@
         <v>2.0469596628537028E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>178</v>
       </c>
@@ -25381,7 +25387,7 @@
         <v>4.0337146297411197E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>178</v>
       </c>
@@ -25413,7 +25419,7 @@
         <v>7.8868151715833834E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>178</v>
       </c>
@@ -25445,7 +25451,7 @@
         <v>0.13726670680313063</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>178</v>
       </c>
@@ -25477,7 +25483,7 @@
         <v>0.2366044551475015</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>178</v>
       </c>
@@ -25509,7 +25515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>178</v>
       </c>
@@ -25541,7 +25547,7 @@
         <v>4.5126353790613718E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>178</v>
       </c>
@@ -25573,7 +25579,7 @@
         <v>1.6245487364620937E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>178</v>
       </c>
@@ -25605,7 +25611,7 @@
         <v>4.4223826714801441E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>178</v>
       </c>
@@ -25637,7 +25643,7 @@
         <v>7.0397111913357402E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>178</v>
       </c>
@@ -32987,7 +32993,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -33103,9 +33109,9 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
@@ -33113,8 +33119,10 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="48"/>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>315</v>
+      </c>
       <c r="B1" s="50" t="s">
         <v>300</v>
       </c>
